--- a/doc/backlog2.2.xlsx
+++ b/doc/backlog2.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\用户\25680\文档\WeChat Files\lyx-bryan\FileStorage\File\2020-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Totoro-Ramen\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F9B103-F148-4110-BC73-3031C3084273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CA3C09-CD7C-4C80-986B-497A5C583A85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="100">
   <si>
     <t>Story ID</t>
   </si>
@@ -410,16 +410,28 @@
     <t>17/4/2019</t>
   </si>
   <si>
-    <t>3/4/2021</t>
-  </si>
-  <si>
-    <t>3/4/2022</t>
-  </si>
-  <si>
     <t>17/4/2021</t>
   </si>
   <si>
     <t>17/4/2022</t>
+  </si>
+  <si>
+    <t>17/4/2023</t>
+  </si>
+  <si>
+    <t>3/4/2023</t>
+  </si>
+  <si>
+    <t>1/5/2021</t>
+  </si>
+  <si>
+    <t>1/5/2022</t>
+  </si>
+  <si>
+    <t>3/4/2024</t>
+  </si>
+  <si>
+    <t>17/4/2024</t>
   </si>
 </sst>
 </file>
@@ -1814,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2242,13 +2254,13 @@
     </row>
     <row r="16" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D16" s="20">
         <v>2</v>
@@ -2257,11 +2269,11 @@
         <v>2</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="22" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>94</v>
@@ -2269,13 +2281,13 @@
     </row>
     <row r="17" spans="1:9" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D17" s="20">
         <v>2</v>
@@ -2284,25 +2296,25 @@
         <v>2</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="22" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="147" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D18" s="20">
         <v>3</v>
@@ -2311,25 +2323,25 @@
         <v>3</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="22" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D19" s="20">
         <v>3</v>
@@ -2338,14 +2350,14 @@
         <v>3</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="22" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
